--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mcam-Mcam.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mcam-Mcam.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.0369900464617</v>
+        <v>84.07754166666668</v>
       </c>
       <c r="H2">
-        <v>33.0369900464617</v>
+        <v>252.232625</v>
       </c>
       <c r="I2">
-        <v>0.3003727624999449</v>
+        <v>0.5195714800795683</v>
       </c>
       <c r="J2">
-        <v>0.3003727624999449</v>
+        <v>0.5195714800795683</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.0369900464617</v>
+        <v>84.07754166666668</v>
       </c>
       <c r="N2">
-        <v>33.0369900464617</v>
+        <v>252.232625</v>
       </c>
       <c r="O2">
-        <v>0.3003727624999449</v>
+        <v>0.5195714800795683</v>
       </c>
       <c r="P2">
-        <v>0.3003727624999449</v>
+        <v>0.5195714800795683</v>
       </c>
       <c r="Q2">
-        <v>1091.44271133001</v>
+        <v>7069.033012710071</v>
       </c>
       <c r="R2">
-        <v>1091.44271133001</v>
+        <v>63621.29711439063</v>
       </c>
       <c r="S2">
-        <v>0.09022379645184829</v>
+        <v>0.2699545229120733</v>
       </c>
       <c r="T2">
-        <v>0.09022379645184829</v>
+        <v>0.2699545229120733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,52 +587,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.0369900464617</v>
+        <v>84.07754166666668</v>
       </c>
       <c r="H3">
-        <v>33.0369900464617</v>
+        <v>252.232625</v>
       </c>
       <c r="I3">
-        <v>0.3003727624999449</v>
+        <v>0.5195714800795683</v>
       </c>
       <c r="J3">
-        <v>0.3003727624999449</v>
+        <v>0.5195714800795683</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7075820872858271</v>
+        <v>0.717126</v>
       </c>
       <c r="N3">
-        <v>0.7075820872858271</v>
+        <v>2.151378</v>
       </c>
       <c r="O3">
-        <v>0.006433345954174905</v>
+        <v>0.004431602183383778</v>
       </c>
       <c r="P3">
-        <v>0.006433345954174905</v>
+        <v>0.004431602183383778</v>
       </c>
       <c r="Q3">
-        <v>23.37638237471646</v>
+        <v>60.29419114525001</v>
       </c>
       <c r="R3">
-        <v>23.37638237471646</v>
+        <v>542.6477203072501</v>
       </c>
       <c r="S3">
-        <v>0.00193240189637336</v>
+        <v>0.002302534105544556</v>
       </c>
       <c r="T3">
-        <v>0.00193240189637336</v>
+        <v>0.002302534105544556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,52 +649,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.0369900464617</v>
+        <v>84.07754166666668</v>
       </c>
       <c r="H4">
-        <v>33.0369900464617</v>
+        <v>252.232625</v>
       </c>
       <c r="I4">
-        <v>0.3003727624999449</v>
+        <v>0.5195714800795683</v>
       </c>
       <c r="J4">
-        <v>0.3003727624999449</v>
+        <v>0.5195714800795683</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.242065041678</v>
+        <v>77.02626533333334</v>
       </c>
       <c r="N4">
-        <v>76.242065041678</v>
+        <v>231.078796</v>
       </c>
       <c r="O4">
-        <v>0.6931938915458803</v>
+        <v>0.4759969177370478</v>
       </c>
       <c r="P4">
-        <v>0.6931938915458803</v>
+        <v>0.4759969177370479</v>
       </c>
       <c r="Q4">
-        <v>2518.808343903602</v>
+        <v>6476.179032991057</v>
       </c>
       <c r="R4">
-        <v>2518.808343903602</v>
+        <v>58285.61129691951</v>
       </c>
       <c r="S4">
-        <v>0.2082165641517232</v>
+        <v>0.2473144230619505</v>
       </c>
       <c r="T4">
-        <v>0.2082165641517232</v>
+        <v>0.2473144230619505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,52 +711,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7075820872858271</v>
+        <v>0.717126</v>
       </c>
       <c r="H5">
-        <v>0.7075820872858271</v>
+        <v>2.151378</v>
       </c>
       <c r="I5">
-        <v>0.006433345954174905</v>
+        <v>0.004431602183383778</v>
       </c>
       <c r="J5">
-        <v>0.006433345954174905</v>
+        <v>0.004431602183383778</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.0369900464617</v>
+        <v>84.07754166666668</v>
       </c>
       <c r="N5">
-        <v>33.0369900464617</v>
+        <v>252.232625</v>
       </c>
       <c r="O5">
-        <v>0.3003727624999449</v>
+        <v>0.5195714800795683</v>
       </c>
       <c r="P5">
-        <v>0.3003727624999449</v>
+        <v>0.5195714800795683</v>
       </c>
       <c r="Q5">
-        <v>23.37638237471646</v>
+        <v>60.29419114525001</v>
       </c>
       <c r="R5">
-        <v>23.37638237471646</v>
+        <v>542.6477203072501</v>
       </c>
       <c r="S5">
-        <v>0.00193240189637336</v>
+        <v>0.002302534105544556</v>
       </c>
       <c r="T5">
-        <v>0.00193240189637336</v>
+        <v>0.002302534105544556</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,52 +773,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7075820872858271</v>
+        <v>0.717126</v>
       </c>
       <c r="H6">
-        <v>0.7075820872858271</v>
+        <v>2.151378</v>
       </c>
       <c r="I6">
-        <v>0.006433345954174905</v>
+        <v>0.004431602183383778</v>
       </c>
       <c r="J6">
-        <v>0.006433345954174905</v>
+        <v>0.004431602183383778</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7075820872858271</v>
+        <v>0.717126</v>
       </c>
       <c r="N6">
-        <v>0.7075820872858271</v>
+        <v>2.151378</v>
       </c>
       <c r="O6">
-        <v>0.006433345954174905</v>
+        <v>0.004431602183383778</v>
       </c>
       <c r="P6">
-        <v>0.006433345954174905</v>
+        <v>0.004431602183383778</v>
       </c>
       <c r="Q6">
-        <v>0.5006724102477678</v>
+        <v>0.514269699876</v>
       </c>
       <c r="R6">
-        <v>0.5006724102477678</v>
+        <v>4.628427298884001</v>
       </c>
       <c r="S6">
-        <v>4.138794016609862E-05</v>
+        <v>1.963909791177186E-05</v>
       </c>
       <c r="T6">
-        <v>4.138794016609862E-05</v>
+        <v>1.963909791177187E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,52 +835,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7075820872858271</v>
+        <v>0.717126</v>
       </c>
       <c r="H7">
-        <v>0.7075820872858271</v>
+        <v>2.151378</v>
       </c>
       <c r="I7">
-        <v>0.006433345954174905</v>
+        <v>0.004431602183383778</v>
       </c>
       <c r="J7">
-        <v>0.006433345954174905</v>
+        <v>0.004431602183383778</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.242065041678</v>
+        <v>77.02626533333334</v>
       </c>
       <c r="N7">
-        <v>76.242065041678</v>
+        <v>231.078796</v>
       </c>
       <c r="O7">
-        <v>0.6931938915458803</v>
+        <v>0.4759969177370478</v>
       </c>
       <c r="P7">
-        <v>0.6931938915458803</v>
+        <v>0.4759969177370479</v>
       </c>
       <c r="Q7">
-        <v>53.94751952117231</v>
+        <v>55.23753755343201</v>
       </c>
       <c r="R7">
-        <v>53.94751952117231</v>
+        <v>497.1378379808881</v>
       </c>
       <c r="S7">
-        <v>0.004459556117635446</v>
+        <v>0.00210942897992745</v>
       </c>
       <c r="T7">
-        <v>0.004459556117635446</v>
+        <v>0.00210942897992745</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,52 +897,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.242065041678</v>
+        <v>77.02626533333334</v>
       </c>
       <c r="H8">
-        <v>76.242065041678</v>
+        <v>231.078796</v>
       </c>
       <c r="I8">
-        <v>0.6931938915458803</v>
+        <v>0.4759969177370478</v>
       </c>
       <c r="J8">
-        <v>0.6931938915458803</v>
+        <v>0.4759969177370479</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.0369900464617</v>
+        <v>84.07754166666668</v>
       </c>
       <c r="N8">
-        <v>33.0369900464617</v>
+        <v>252.232625</v>
       </c>
       <c r="O8">
-        <v>0.3003727624999449</v>
+        <v>0.5195714800795683</v>
       </c>
       <c r="P8">
-        <v>0.3003727624999449</v>
+        <v>0.5195714800795683</v>
       </c>
       <c r="Q8">
-        <v>2518.808343903602</v>
+        <v>6476.179032991057</v>
       </c>
       <c r="R8">
-        <v>2518.808343903602</v>
+        <v>58285.61129691951</v>
       </c>
       <c r="S8">
-        <v>0.2082165641517232</v>
+        <v>0.2473144230619505</v>
       </c>
       <c r="T8">
-        <v>0.2082165641517232</v>
+        <v>0.2473144230619505</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,52 +959,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.242065041678</v>
+        <v>77.02626533333334</v>
       </c>
       <c r="H9">
-        <v>76.242065041678</v>
+        <v>231.078796</v>
       </c>
       <c r="I9">
-        <v>0.6931938915458803</v>
+        <v>0.4759969177370478</v>
       </c>
       <c r="J9">
-        <v>0.6931938915458803</v>
+        <v>0.4759969177370479</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7075820872858271</v>
+        <v>0.717126</v>
       </c>
       <c r="N9">
-        <v>0.7075820872858271</v>
+        <v>2.151378</v>
       </c>
       <c r="O9">
-        <v>0.006433345954174905</v>
+        <v>0.004431602183383778</v>
       </c>
       <c r="P9">
-        <v>0.006433345954174905</v>
+        <v>0.004431602183383778</v>
       </c>
       <c r="Q9">
-        <v>53.94751952117231</v>
+        <v>55.23753755343201</v>
       </c>
       <c r="R9">
-        <v>53.94751952117231</v>
+        <v>497.1378379808881</v>
       </c>
       <c r="S9">
-        <v>0.004459556117635446</v>
+        <v>0.00210942897992745</v>
       </c>
       <c r="T9">
-        <v>0.004459556117635446</v>
+        <v>0.00210942897992745</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,52 +1021,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>76.242065041678</v>
+        <v>77.02626533333334</v>
       </c>
       <c r="H10">
-        <v>76.242065041678</v>
+        <v>231.078796</v>
       </c>
       <c r="I10">
-        <v>0.6931938915458803</v>
+        <v>0.4759969177370478</v>
       </c>
       <c r="J10">
-        <v>0.6931938915458803</v>
+        <v>0.4759969177370479</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>76.242065041678</v>
+        <v>77.02626533333334</v>
       </c>
       <c r="N10">
-        <v>76.242065041678</v>
+        <v>231.078796</v>
       </c>
       <c r="O10">
-        <v>0.6931938915458803</v>
+        <v>0.4759969177370478</v>
       </c>
       <c r="P10">
-        <v>0.6931938915458803</v>
+        <v>0.4759969177370479</v>
       </c>
       <c r="Q10">
-        <v>5812.852481819459</v>
+        <v>5933.045551201069</v>
       </c>
       <c r="R10">
-        <v>5812.852481819459</v>
+        <v>53397.40996080962</v>
       </c>
       <c r="S10">
-        <v>0.4805177712765216</v>
+        <v>0.2265730656951699</v>
       </c>
       <c r="T10">
-        <v>0.4805177712765216</v>
+        <v>0.2265730656951699</v>
       </c>
     </row>
   </sheetData>
